--- a/tools/通信包格式.xlsx
+++ b/tools/通信包格式.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umbor\Desktop\2021国赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021国赛\软件代码\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA768EF1-5791-4E04-918D-6FF2AA339308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45041F54-1593-474B-9531-8FE3BB79C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A462051D-44C0-4FA5-95EA-2F88F1B8D22E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>AA FF F3 02 00 02 A0 CB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,18 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超声波 or 激光测距(MSB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AA FF F1 03 03 xx xx CRC </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AA FF F1 03 04 xx xx CRC </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>右旋9°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,14 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数字识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维码识别(MCU -&gt; 上位机)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AA FF F3 02 00 01 9F CA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,22 +120,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AA FF F2 02 00 02 CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AA FF F4 02 00 00 CRC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模式0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA FF F4 02 00 01 CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AA FF F5 06 xxxx CRC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,15 +132,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模式1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AA FF F1 03 05 00 00 CRC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拍照结束</t>
+    <t xml:space="preserve">AA FF F1 02 03 01 CRC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别到绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AA FF F1 02 04 xx CRC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空模式（仅拍照）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色块识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F4 02 01 00 CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F4 02 01 01 CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个色块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F4 02 02 00 CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F4 02 03 00 CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字识别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541A92AC-D426-481A-A1C2-705399981C56}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
@@ -563,6 +579,7 @@
     <col min="1" max="1" width="28.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,94 +643,106 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tools/通信包格式.xlsx
+++ b/tools/通信包格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021国赛\软件代码\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45041F54-1593-474B-9531-8FE3BB79C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDBA21F-2AEC-434D-93AA-A98C8E93A55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A462051D-44C0-4FA5-95EA-2F88F1B8D22E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>AA FF F3 02 00 02 A0 CB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AA FF F1 03 05 00 00 CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">AA FF F1 02 03 01 CRC </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空模式（仅拍照）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +181,22 @@
   </si>
   <si>
     <t>十字识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F1 02 05 01 CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷洒完成，下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F1 02 06 01 CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541A92AC-D426-481A-A1C2-705399981C56}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -643,105 +651,113 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/tools/通信包格式.xlsx
+++ b/tools/通信包格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021国赛\软件代码\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDBA21F-2AEC-434D-93AA-A98C8E93A55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C516A8-CE25-4BDB-BBE0-8D73196A5C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A462051D-44C0-4FA5-95EA-2F88F1B8D22E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>AA FF F3 02 00 02 A0 CB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,14 @@
   </si>
   <si>
     <t>着陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F4 02 04 00 CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码识别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541A92AC-D426-481A-A1C2-705399981C56}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -753,11 +761,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/tools/通信包格式.xlsx
+++ b/tools/通信包格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021国赛\软件代码\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C516A8-CE25-4BDB-BBE0-8D73196A5C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC97D99-6045-4BE2-89DF-528E1762BE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A462051D-44C0-4FA5-95EA-2F88F1B8D22E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>AA FF F3 02 00 02 A0 CB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>二维码识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENMV -&gt; MCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到指定位置了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541A92AC-D426-481A-A1C2-705399981C56}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -598,82 +610,109 @@
     <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -681,7 +720,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -689,12 +728,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -702,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,6 +813,9 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/tools/通信包格式.xlsx
+++ b/tools/通信包格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021国赛\软件代码\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC97D99-6045-4BE2-89DF-528E1762BE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E214F364-E52B-4EFD-BE78-09331632834B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A462051D-44C0-4FA5-95EA-2F88F1B8D22E}"/>
   </bookViews>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AA FF F1 02 03 01 CRC </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>识别到绿色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,18 +180,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AA FF F1 02 05 01 CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>喷洒完成，下一步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AA FF F1 02 06 01 CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>着陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +205,18 @@
   </si>
   <si>
     <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F1 02 05 01 A2 CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F1 02 06 01 A3 CE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA FF F1 02 03 01 A0 C8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,40 +692,40 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,45 +767,45 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">

--- a/tools/通信包格式.xlsx
+++ b/tools/通信包格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021国赛\软件代码\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E214F364-E52B-4EFD-BE78-09331632834B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C565B56-5FA4-43B1-9714-BD87A3A3C68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A462051D-44C0-4FA5-95EA-2F88F1B8D22E}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/tools/通信包格式.xlsx
+++ b/tools/通信包格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021国赛\软件代码\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C565B56-5FA4-43B1-9714-BD87A3A3C68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F29AA35-337A-4DE6-9F87-6C3C36FEFAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A462051D-44C0-4FA5-95EA-2F88F1B8D22E}"/>
   </bookViews>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AA FF F1 02 04 xx CRC </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空模式（仅拍照）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +213,10 @@
   </si>
   <si>
     <t>AA FF F1 02 03 01 A0 C8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AA FF F1 03 04 xx xx CRC </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,40 +692,40 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,45 +767,45 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
